--- a/z/data/model/QC Chart_Heavy Metal -66-01-2018-012.xlsx
+++ b/z/data/model/QC Chart_Heavy Metal -66-01-2018-012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5BEEFC-D639-4FF1-A1BD-9C16F659B68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA65B6D-C25A-4DE1-8BA1-91A7BC0870D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1649,6 +1649,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1705,16 +1715,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -9562,12 +9562,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="83"/>
+    <col min="1" max="1" width="9.06640625" style="64"/>
     <col min="2" max="2" width="9.06640625" style="63"/>
     <col min="3" max="3" width="34.59765625" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" customWidth="1"/>
@@ -9576,10 +9576,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1475" s="49" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="65" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="55" t="s">
@@ -11063,10 +11063,10 @@
       <c r="BDS1" s="48"/>
     </row>
     <row r="2" spans="1:1475" s="13" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -12549,10 +12549,10 @@
       <c r="BDR2" s="43"/>
     </row>
     <row r="3" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -14034,10 +14034,10 @@
       <c r="BDQ3" s="15"/>
     </row>
     <row r="4" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -15519,10 +15519,10 @@
       <c r="BDQ4" s="15"/>
     </row>
     <row r="5" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -17004,10 +17004,10 @@
       <c r="BDQ5" s="15"/>
     </row>
     <row r="6" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="65" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -18489,10 +18489,10 @@
       <c r="BDQ6" s="15"/>
     </row>
     <row r="7" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="86">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -19974,10 +19974,10 @@
       <c r="BDQ7" s="15"/>
     </row>
     <row r="8" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="86">
+      <c r="A8" s="67">
         <v>7</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -21459,10 +21459,10 @@
       <c r="BDQ8" s="15"/>
     </row>
     <row r="9" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="59" t="s">
@@ -22944,10 +22944,10 @@
       <c r="BDQ9" s="61"/>
     </row>
     <row r="10" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="86">
+      <c r="A10" s="67">
         <v>9</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="59" t="s">
@@ -24429,10 +24429,10 @@
       <c r="BDQ10" s="61"/>
     </row>
     <row r="11" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86">
+      <c r="A11" s="67">
         <v>10</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="65" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -25914,10 +25914,10 @@
       <c r="BDQ11" s="61"/>
     </row>
     <row r="12" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="86">
+      <c r="A12" s="67">
         <v>11</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="66" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="59" t="s">
@@ -27399,10 +27399,10 @@
       <c r="BDQ12" s="61"/>
     </row>
     <row r="13" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="86">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="66" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="59" t="s">
@@ -28884,10 +28884,10 @@
       <c r="BDQ13" s="61"/>
     </row>
     <row r="14" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="86">
+      <c r="A14" s="67">
         <v>13</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="59" t="s">
@@ -30369,10 +30369,10 @@
       <c r="BDQ14" s="61"/>
     </row>
     <row r="15" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="86">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="59" t="s">
@@ -31854,10 +31854,10 @@
       <c r="BDQ15" s="61"/>
     </row>
     <row r="16" spans="1:1475" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="86">
+      <c r="A16" s="67">
         <v>15</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="65" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -33339,10 +33339,10 @@
       <c r="BDQ16" s="61"/>
     </row>
     <row r="17" spans="1:1473" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="86">
+      <c r="A17" s="67">
         <v>16</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="59" t="s">
@@ -34824,10 +34824,10 @@
       <c r="BDQ17" s="61"/>
     </row>
     <row r="18" spans="1:1473" s="16" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86">
+      <c r="A18" s="67">
         <v>17</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="59" t="s">
@@ -36309,10 +36309,10 @@
       <c r="BDQ18" s="61"/>
     </row>
     <row r="19" spans="1:1473" s="32" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86">
+      <c r="A19" s="67">
         <v>18</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="66" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="59" t="s">
@@ -36401,10 +36401,10 @@
       <c r="LH19" s="62"/>
     </row>
     <row r="20" spans="1:1473" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="86">
+      <c r="A20" s="67">
         <v>19</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="66" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -37170,8 +37170,8 @@
     <col min="267" max="267" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:331" s="64" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:331" s="68" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
     </row>
@@ -49104,50 +49104,50 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="72"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="76"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="75"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -49182,100 +49182,100 @@
       <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="75"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="79"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="75"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -49416,8 +49416,8 @@
     <col min="264" max="264" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:328" s="64" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:328" s="68" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
         <v>44</v>
       </c>
     </row>
@@ -51631,41 +51631,41 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="78"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="82"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="79"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="81"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
@@ -51895,8 +51895,8 @@
     <col min="264" max="264" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:328" s="64" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:328" s="68" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
         <v>48</v>
       </c>
     </row>
@@ -51919,10 +51919,10 @@
       <c r="D4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="82"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -55219,41 +55219,41 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="75"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
